--- a/10_Java/学习笔记_ORM_MyBatis-Plus.xlsx
+++ b/10_Java/学习笔记_ORM_MyBatis-Plus.xlsx
@@ -18,7 +18,8 @@
     <sheet name="问题" sheetId="8" r:id="rId9"/>
     <sheet name="参考" sheetId="7" r:id="rId10"/>
     <sheet name="配置" sheetId="11" r:id="rId11"/>
-    <sheet name="插件" sheetId="12" r:id="rId12"/>
+    <sheet name="源码" sheetId="13" r:id="rId12"/>
+    <sheet name="插件" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="555">
   <si>
     <r>
       <rPr>
@@ -8939,12 +8940,3519 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AMPERSAND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&amp;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"and"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ASTERISK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">STAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ASTERISK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BACK_SLASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">COLON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">COMMA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOLLAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"$"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOTDOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>".."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOT_CLASS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>".class"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOT_JAVA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>".java"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOT_XML </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>".xml"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">EMPTY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">EQUALS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">FALSE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SLASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HAT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"^"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LEFT_BRACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LEFT_BRACKET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LEFT_CHEV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&lt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOT_NEWLINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">NEWLINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">NO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"no"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"null"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">OFF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"off"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"on"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PERCENT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PIPE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"|"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PLUS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">QUESTION_MARK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"?"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">EXCLAMATION_MARK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"!"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">QUOTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RETURN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TAB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RIGHT_BRACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RIGHT_BRACKET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>")"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RIGHT_CHEV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SEMICOLON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>";"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SINGLE_QUOTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"'"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BACKTICK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"`"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SPACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TILDA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"~"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LEFT_SQ_BRACKET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RIGHT_SQ_BRACKET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TRUE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">UNDERSCORE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">UTF_8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">US_ASCII </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"US-ASCII"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ISO_8859_1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ISO-8859-1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"y"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">YES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"yes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ONE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ZERO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOLLAR_LEFT_BRACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"${"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HASH_LEFT_BRACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"#{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRLF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\r\n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTML_NBSP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&amp;nbsp;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTML_AMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&amp;amp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTML_QUOTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&amp;quot;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTML_LT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&amp;lt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTML_GT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&amp;gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// ---------------------------------------------------------------- array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String[] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">EMPTY_ARRAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BYTES_NEW_LINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= StringPool.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NEWLINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.getBytes();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public interface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>StringPool {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="75">
+  <fonts count="79">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9458,6 +12966,38 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF660E7A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF008000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF0000FF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9592,7 +13132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9802,12 +13342,6 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9838,6 +13372,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10857,7 +14403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12532,29 +16078,411 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5">
+      <c r="A1" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="28" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="28" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="28" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="28" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="28" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="28" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="28" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="28" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="103" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="104" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="95" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="96" t="s">
         <v>467</v>
       </c>
     </row>
@@ -12579,17 +16507,17 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="97" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="98" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="97" t="s">
         <v>473</v>
       </c>
     </row>
@@ -12599,32 +16527,32 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.25">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="95" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.75">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="99" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="96" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="100" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="21.75">
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="99" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="96" t="s">
         <v>480</v>
       </c>
     </row>
@@ -12632,14 +16560,15 @@
       <c r="B65" t="s">
         <v>481</v>
       </c>
-      <c r="K65" s="102" t="s">
+      <c r="K65" s="100" t="s">
         <v>482</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13662,7 +17591,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>464</v>
       </c>
       <c r="C2" s="23"/>
@@ -13678,7 +17607,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>463</v>
       </c>
       <c r="C4" s="23"/>
@@ -13953,7 +17882,7 @@
       <c r="F19" s="12"/>
     </row>
     <row r="21" spans="2:8" ht="17.25">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="90" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="43"/>
@@ -14359,7 +18288,7 @@
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="2:19" ht="17.25">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="90" t="s">
         <v>251</v>
       </c>
       <c r="C47" s="43"/>
@@ -14483,24 +18412,24 @@
       <c r="I57" s="23"/>
     </row>
     <row r="58" spans="2:25" ht="17.25">
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90" t="s">
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
       <c r="H58" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I58" s="90" t="s">
+      <c r="I58" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="102"/>
       <c r="L58" s="46" t="s">
         <v>119</v>
       </c>
@@ -14519,24 +18448,24 @@
       <c r="Y58" s="47"/>
     </row>
     <row r="59" spans="2:25" ht="17.25">
-      <c r="B59" s="89" t="s">
+      <c r="B59" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89" t="s">
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
       <c r="H59" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="89" t="s">
+      <c r="I59" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
       <c r="L59" s="50" t="s">
         <v>171</v>
       </c>
@@ -14555,24 +18484,24 @@
       <c r="Y59" s="51"/>
     </row>
     <row r="60" spans="2:25" ht="17.25">
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89" t="s">
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
       <c r="H60" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I60" s="89" t="b">
+      <c r="I60" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
       <c r="L60" s="50" t="s">
         <v>173</v>
       </c>
@@ -14591,24 +18520,24 @@
       <c r="Y60" s="51"/>
     </row>
     <row r="61" spans="2:25" ht="17.25">
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89" t="s">
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
       <c r="H61" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="89" t="s">
+      <c r="I61" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101"/>
       <c r="L61" t="s">
         <v>201</v>
       </c>
@@ -14627,24 +18556,24 @@
       <c r="Y61" s="51"/>
     </row>
     <row r="62" spans="2:25" ht="17.25">
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89" t="s">
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
       <c r="H62" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I62" s="89" t="s">
+      <c r="I62" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="101"/>
       <c r="L62" s="50" t="s">
         <v>176</v>
       </c>
@@ -14663,24 +18592,24 @@
       <c r="Y62" s="51"/>
     </row>
     <row r="63" spans="2:25" ht="17.25">
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89" t="s">
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89" t="s">
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="I63" s="89" t="s">
+      <c r="I63" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
       <c r="L63" s="50" t="s">
         <v>177</v>
       </c>
@@ -14699,16 +18628,16 @@
       <c r="Y63" s="51"/>
     </row>
     <row r="64" spans="2:25" ht="14.25" customHeight="1">
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
       <c r="L64" s="58" t="s">
         <v>178</v>
       </c>
@@ -14727,24 +18656,24 @@
       <c r="Y64" s="51"/>
     </row>
     <row r="65" spans="2:25" ht="17.25">
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89" t="s">
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89" t="s">
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="89" t="s">
+      <c r="I65" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101"/>
       <c r="L65" s="50" t="s">
         <v>179</v>
       </c>
@@ -14763,16 +18692,16 @@
       <c r="Y65" s="51"/>
     </row>
     <row r="66" spans="2:25" ht="14.25" customHeight="1">
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
       <c r="L66" s="58" t="s">
         <v>180</v>
       </c>
@@ -14791,24 +18720,24 @@
       <c r="Y66" s="51"/>
     </row>
     <row r="67" spans="2:25" ht="17.25">
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89" t="s">
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89" t="s">
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="I67" s="89" t="s">
+      <c r="I67" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="101"/>
       <c r="L67" s="50" t="s">
         <v>181</v>
       </c>
@@ -14827,16 +18756,16 @@
       <c r="Y67" s="51"/>
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1">
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
       <c r="L68" s="58" t="s">
         <v>182</v>
       </c>
@@ -14855,24 +18784,24 @@
       <c r="Y68" s="51"/>
     </row>
     <row r="69" spans="2:25" ht="17.25">
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89" t="s">
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
       <c r="H69" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I69" s="89" t="s">
+      <c r="I69" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101"/>
       <c r="L69" s="50" t="s">
         <v>185</v>
       </c>
@@ -14891,24 +18820,24 @@
       <c r="Y69" s="51"/>
     </row>
     <row r="70" spans="2:25" ht="17.25">
-      <c r="B70" s="89" t="s">
+      <c r="B70" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89" t="s">
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
       <c r="H70" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I70" s="89" t="b">
+      <c r="I70" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
+      <c r="J70" s="101"/>
+      <c r="K70" s="101"/>
       <c r="L70" s="50" t="s">
         <v>187</v>
       </c>
@@ -14927,24 +18856,24 @@
       <c r="Y70" s="51"/>
     </row>
     <row r="71" spans="2:25" ht="17.25">
-      <c r="B71" s="89" t="s">
+      <c r="B71" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89" t="s">
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
       <c r="H71" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I71" s="89" t="b">
+      <c r="I71" s="101" t="b">
         <v>0</v>
       </c>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="101"/>
       <c r="L71" s="50" t="s">
         <v>189</v>
       </c>
@@ -14963,24 +18892,24 @@
       <c r="Y71" s="51"/>
     </row>
     <row r="72" spans="2:25" ht="17.25">
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89" t="s">
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
       <c r="H72" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I72" s="89" t="s">
+      <c r="I72" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="101"/>
       <c r="L72" s="50" t="s">
         <v>193</v>
       </c>
@@ -14999,24 +18928,24 @@
       <c r="Y72" s="51"/>
     </row>
     <row r="73" spans="2:25" ht="17.25">
-      <c r="B73" s="89" t="s">
+      <c r="B73" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89" t="s">
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
       <c r="H73" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="89" t="s">
+      <c r="I73" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="101"/>
       <c r="L73" s="50" t="s">
         <v>197</v>
       </c>
@@ -15035,24 +18964,24 @@
       <c r="Y73" s="51"/>
     </row>
     <row r="74" spans="2:25" ht="17.25">
-      <c r="B74" s="89" t="s">
+      <c r="B74" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89" t="s">
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
       <c r="H74" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="I74" s="89" t="s">
+      <c r="I74" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
       <c r="L74" s="54" t="s">
         <v>199</v>
       </c>
@@ -15247,7 +19176,7 @@
       <c r="F93" s="12"/>
     </row>
     <row r="94" spans="2:6" ht="26.25">
-      <c r="B94" s="95" t="s">
+      <c r="B94" s="93" t="s">
         <v>461</v>
       </c>
       <c r="C94" s="43"/>
@@ -15297,7 +19226,7 @@
       <c r="F99" s="12"/>
     </row>
     <row r="100" spans="2:6" ht="26.25">
-      <c r="B100" s="95" t="s">
+      <c r="B100" s="93" t="s">
         <v>462</v>
       </c>
       <c r="C100" s="43"/>
@@ -15332,7 +19261,7 @@
       </c>
     </row>
     <row r="103" spans="2:6" ht="17.25">
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="89" t="s">
         <v>120</v>
       </c>
       <c r="C103" s="41" t="s">
@@ -15349,7 +19278,7 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="17.25">
-      <c r="B104" s="91" t="s">
+      <c r="B104" s="89" t="s">
         <v>225</v>
       </c>
       <c r="C104" s="41" t="s">
@@ -15585,30 +19514,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="I63:K64"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="I65:K66"/>
-    <mergeCell ref="I67:K68"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
     <mergeCell ref="E58:G58"/>
     <mergeCell ref="I58:K58"/>
@@ -15625,11 +19535,30 @@
     <mergeCell ref="E65:G66"/>
     <mergeCell ref="E67:G68"/>
     <mergeCell ref="E59:G59"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="I63:K64"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="I65:K66"/>
+    <mergeCell ref="I67:K68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
